--- a/results/data/FW_mastersankey.xlsx
+++ b/results/data/FW_mastersankey.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="30">
   <si>
     <t>FW_sankey</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>B04 Inzetten als brandstof</t>
-  </si>
-  <si>
-    <t>F03 Pyrolyse</t>
   </si>
 </sst>
 </file>
@@ -464,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -566,7 +563,7 @@
         <v>18</v>
       </c>
       <c r="E6">
-        <v>14.434</v>
+        <v>13.863</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1022,10 +1019,10 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E33">
-        <v>7.42</v>
+        <v>20.587</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1039,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E34">
-        <v>20.587</v>
+        <v>6447.943</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1056,10 +1053,10 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E35">
-        <v>6447.943</v>
+        <v>86.74000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1073,10 +1070,10 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E36">
-        <v>14.04</v>
+        <v>130.23</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1087,13 +1084,13 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E37">
-        <v>130.23</v>
+        <v>14.423</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1107,10 +1104,10 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E38">
-        <v>14.423</v>
+        <v>8.861000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1124,10 +1121,10 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E39">
-        <v>8.861000000000001</v>
+        <v>5296.576000000001</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1141,10 +1138,10 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E40">
-        <v>5296.576000000001</v>
+        <v>348.2160000000001</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1158,10 +1155,10 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E41">
-        <v>348.2160000000001</v>
+        <v>14072.2</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1175,10 +1172,10 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E42">
-        <v>14144.9</v>
+        <v>13769.68</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1192,10 +1189,10 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E43">
-        <v>13769.68</v>
+        <v>19675.41999999999</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1209,10 +1206,10 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E44">
-        <v>19675.41999999999</v>
+        <v>633.7199999999999</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,16 +1217,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E45">
-        <v>633.7199999999999</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1243,10 +1240,10 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E46">
-        <v>10.32</v>
+        <v>115.612</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1260,10 +1257,10 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47">
-        <v>115.742</v>
+        <v>376.124</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1277,10 +1274,10 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E48">
-        <v>7.62</v>
+        <v>2624.041</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1294,10 +1291,10 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E49">
-        <v>376.124</v>
+        <v>907.4</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1311,10 +1308,10 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E50">
-        <v>2624.041</v>
+        <v>103.36</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1328,10 +1325,10 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E51">
-        <v>907.4</v>
+        <v>28.34</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1342,13 +1339,13 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E52">
-        <v>103.36</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1359,13 +1356,13 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>28.34</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1376,13 +1373,13 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E54">
-        <v>0.007</v>
+        <v>4121.968000000001</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1393,13 +1390,13 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E55">
-        <v>0.073</v>
+        <v>4413.751</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1413,10 +1410,10 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E56">
-        <v>4121.968000000001</v>
+        <v>405.34</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1430,10 +1427,10 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E57">
-        <v>4413.751</v>
+        <v>5283.857000000002</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1447,10 +1444,10 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E58">
-        <v>405.34</v>
+        <v>1393.78</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1464,10 +1461,10 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E59">
-        <v>5428.637000000002</v>
+        <v>1931.52</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1481,10 +1478,10 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E60">
-        <v>1393.78</v>
+        <v>2787.08</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1498,10 +1495,10 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E61">
-        <v>1931.52</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1512,13 +1509,13 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E62">
-        <v>2787.08</v>
+        <v>1404.17</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1529,13 +1526,13 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E63">
-        <v>493</v>
+        <v>281.74</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1549,10 +1546,10 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E64">
-        <v>1406.81</v>
+        <v>435.2</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1566,10 +1563,10 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E65">
-        <v>281.74</v>
+        <v>849.215</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1583,10 +1580,10 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E66">
-        <v>435.2</v>
+        <v>435.535</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1600,10 +1597,10 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E67">
-        <v>849.215</v>
+        <v>1394.49</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1617,10 +1614,10 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E68">
-        <v>469.475</v>
+        <v>1265.62</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1634,10 +1631,10 @@
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E69">
-        <v>1394.49</v>
+        <v>519.0599999999999</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1651,10 +1648,10 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E70">
-        <v>1265.62</v>
+        <v>1110.12</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1665,13 +1662,13 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E71">
-        <v>519.0599999999999</v>
+        <v>3111.787</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1682,13 +1679,13 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E72">
-        <v>1.598</v>
+        <v>203.82</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1699,13 +1696,13 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E73">
-        <v>1110.12</v>
+        <v>1466.857</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1719,10 +1716,10 @@
         <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E74">
-        <v>3111.965</v>
+        <v>12454.65</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1736,10 +1733,10 @@
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E75">
-        <v>203.82</v>
+        <v>8558.140000000001</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1753,10 +1750,10 @@
         <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E76">
-        <v>1466.857</v>
+        <v>5674.17</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1770,10 +1767,10 @@
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E77">
-        <v>12454.65</v>
+        <v>64603.56</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1778,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E78">
-        <v>8558.140000000001</v>
+        <v>2564.639</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,16 +1795,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E79">
-        <v>5674.17</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,16 +1812,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E80">
-        <v>64603.56</v>
+        <v>2270.787</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1838,10 +1835,10 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E81">
-        <v>2565.272</v>
+        <v>86.02500000000001</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1855,10 +1852,10 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E82">
-        <v>0.82</v>
+        <v>1131.88</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1872,10 +1869,10 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E83">
-        <v>2270.787</v>
+        <v>1221.78</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1889,10 +1886,10 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E84">
-        <v>86.02500000000001</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1903,13 +1900,13 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E85">
-        <v>1131.88</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1920,13 +1917,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E86">
-        <v>1221.78</v>
+        <v>1.303</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1937,13 +1934,13 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E87">
-        <v>0.88</v>
+        <v>10715.9</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1954,13 +1951,13 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E88">
-        <v>2.776</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1971,13 +1968,13 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E89">
-        <v>1.303</v>
+        <v>167.2</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1988,13 +1985,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E90">
-        <v>15.58</v>
+        <v>548.8089999999999</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2005,13 +2002,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E91">
-        <v>9.9</v>
+        <v>245.98</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2025,10 +2022,10 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E92">
-        <v>11395.56</v>
+        <v>514.08</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2042,10 +2039,10 @@
         <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E93">
-        <v>0.42</v>
+        <v>652.24</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2059,10 +2056,10 @@
         <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E94">
-        <v>167.2</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2076,10 +2073,10 @@
         <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E95">
-        <v>548.8089999999999</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2090,13 +2087,13 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E96">
-        <v>245.98</v>
+        <v>98.08</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2107,13 +2104,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E97">
-        <v>514.08</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2124,13 +2121,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E98">
-        <v>652.24</v>
+        <v>379.98</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2141,13 +2138,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E99">
-        <v>2208</v>
+        <v>39.88</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2158,13 +2155,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E100">
-        <v>5.32</v>
+        <v>1977.652</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2175,13 +2172,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E101">
-        <v>0.105</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2192,13 +2189,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E102">
-        <v>98.08</v>
+        <v>374.983</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2212,10 +2209,10 @@
         <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E103">
-        <v>7.42</v>
+        <v>223.15</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2229,10 +2226,10 @@
         <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E104">
-        <v>380.49</v>
+        <v>3426.92</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2246,10 +2243,10 @@
         <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E105">
-        <v>39.88</v>
+        <v>7125.482000000001</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2263,10 +2260,10 @@
         <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E106">
-        <v>1977.652</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2277,13 +2274,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E107">
-        <v>5.08</v>
+        <v>449.97</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2294,13 +2291,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D108" t="s">
         <v>17</v>
       </c>
       <c r="E108">
-        <v>374.983</v>
+        <v>682.8489999999999</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2311,13 +2308,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D109" t="s">
         <v>21</v>
       </c>
       <c r="E109">
-        <v>223.15</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2328,13 +2325,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D110" t="s">
         <v>22</v>
       </c>
       <c r="E110">
-        <v>3426.92</v>
+        <v>3609.96</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2345,13 +2342,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D111" t="s">
         <v>20</v>
       </c>
       <c r="E111">
-        <v>7125.482000000001</v>
+        <v>1320.94</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2362,13 +2359,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E112">
-        <v>26.92</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2373,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E113">
-        <v>450.032</v>
+        <v>26217.679</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2390,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E114">
-        <v>682.8489999999999</v>
+        <v>876.28</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,16 +2407,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E115">
-        <v>2.38</v>
+        <v>1224.7</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2424,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E116">
-        <v>3609.96</v>
+        <v>512.02</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,117 +2441,15 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D117" t="s">
         <v>20</v>
       </c>
       <c r="E117">
-        <v>1320.94</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118" t="s">
-        <v>27</v>
-      </c>
-      <c r="E118">
-        <v>16.64</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119">
-        <v>26217.679</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s">
-        <v>22</v>
-      </c>
-      <c r="E120">
-        <v>876.28</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" t="s">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s">
-        <v>20</v>
-      </c>
-      <c r="E121">
-        <v>1224.7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122">
-        <v>512.02</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" t="s">
-        <v>20</v>
-      </c>
-      <c r="E123">
         <v>7.84</v>
       </c>
     </row>
